--- a/Case 2/Result/Transporter.xlsx
+++ b/Case 2/Result/Transporter.xlsx
@@ -14334,7 +14334,7 @@
         <v>0.5</v>
       </c>
       <c r="D263">
-        <v>15.6</v>
+        <v>14.6</v>
       </c>
       <c r="E263">
         <v>0</v>
@@ -14493,7 +14493,7 @@
         <v>1.8</v>
       </c>
       <c r="D266">
-        <v>24.4</v>
+        <v>25.5</v>
       </c>
       <c r="E266">
         <v>0</v>
@@ -16189,7 +16189,7 @@
         <v>0</v>
       </c>
       <c r="D298">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="E298">
         <v>0.6</v>
@@ -16242,7 +16242,7 @@
         <v>0.3</v>
       </c>
       <c r="D299">
-        <v>20.1</v>
+        <v>21.2</v>
       </c>
       <c r="E299">
         <v>0</v>
@@ -16554,7 +16554,7 @@
         <v>43789</v>
       </c>
       <c r="B305">
-        <v>68</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="C305">
         <v>0.9</v>
@@ -16660,7 +16660,7 @@
         <v>43791</v>
       </c>
       <c r="B307">
-        <v>104.6</v>
+        <v>104.8</v>
       </c>
       <c r="C307">
         <v>6.3</v>
@@ -16925,13 +16925,13 @@
         <v>43796</v>
       </c>
       <c r="B312">
-        <v>60.4</v>
+        <v>60.3</v>
       </c>
       <c r="C312">
         <v>0.2</v>
       </c>
       <c r="D312">
-        <v>23.7</v>
+        <v>23.6</v>
       </c>
       <c r="E312">
         <v>2</v>
@@ -17031,7 +17031,7 @@
         <v>43798</v>
       </c>
       <c r="B314">
-        <v>114.5</v>
+        <v>115.6</v>
       </c>
       <c r="C314">
         <v>5</v>
@@ -17296,13 +17296,13 @@
         <v>43803</v>
       </c>
       <c r="B319">
-        <v>117.9</v>
+        <v>115.7</v>
       </c>
       <c r="C319">
         <v>4.1</v>
       </c>
       <c r="D319">
-        <v>63.4</v>
+        <v>63.3</v>
       </c>
       <c r="E319">
         <v>0</v>
@@ -17932,7 +17932,7 @@
         <v>43815</v>
       </c>
       <c r="B331">
-        <v>62.9</v>
+        <v>64</v>
       </c>
       <c r="C331">
         <v>3</v>
@@ -17985,7 +17985,7 @@
         <v>43816</v>
       </c>
       <c r="B332">
-        <v>93</v>
+        <v>93.3</v>
       </c>
       <c r="C332">
         <v>1.4</v>
@@ -18038,7 +18038,7 @@
         <v>43817</v>
       </c>
       <c r="B333">
-        <v>78.09999999999999</v>
+        <v>76.3</v>
       </c>
       <c r="C333">
         <v>0.7</v>
@@ -18091,7 +18091,7 @@
         <v>43818</v>
       </c>
       <c r="B334">
-        <v>89.90000000000001</v>
+        <v>90.2</v>
       </c>
       <c r="C334">
         <v>1.2</v>
@@ -18144,10 +18144,10 @@
         <v>43819</v>
       </c>
       <c r="B335">
-        <v>68.3</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="C335">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="D335">
         <v>17.9</v>
@@ -18303,7 +18303,7 @@
         <v>43822</v>
       </c>
       <c r="B338">
-        <v>70.2</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="C338">
         <v>0.2</v>
@@ -18356,10 +18356,10 @@
         <v>43823</v>
       </c>
       <c r="B339">
-        <v>49.5</v>
+        <v>49.7</v>
       </c>
       <c r="C339">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="D339">
         <v>11.7</v>
@@ -18409,13 +18409,13 @@
         <v>43825</v>
       </c>
       <c r="B340">
-        <v>47.9</v>
+        <v>49.1</v>
       </c>
       <c r="C340">
         <v>0.3</v>
       </c>
       <c r="D340">
-        <v>7.3</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="E340">
         <v>0</v>
@@ -18621,13 +18621,13 @@
         <v>43829</v>
       </c>
       <c r="B344">
-        <v>25.9</v>
+        <v>26.4</v>
       </c>
       <c r="C344">
         <v>0</v>
       </c>
       <c r="D344">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="E344">
         <v>0.8</v>
@@ -18674,13 +18674,13 @@
         <v>43830</v>
       </c>
       <c r="B345">
-        <v>24.1</v>
+        <v>22.7</v>
       </c>
       <c r="C345">
-        <v>0.1</v>
+        <v>0.7</v>
       </c>
       <c r="D345">
-        <v>13.1</v>
+        <v>11.4</v>
       </c>
       <c r="E345">
         <v>0</v>
@@ -18833,13 +18833,13 @@
         <v>43833</v>
       </c>
       <c r="B348">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="C348">
         <v>0</v>
       </c>
       <c r="D348">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="E348">
         <v>0.2</v>
